--- a/data_input/CR/CRR_aug2023.xlsx
+++ b/data_input/CR/CRR_aug2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D3E0BB-B51A-4D4A-B346-9DAD47D2ED77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9098E4A3-B5A9-4AC2-BE47-E0DB00303D42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8115" yWindow="1110" windowWidth="13425" windowHeight="14220" tabRatio="601" firstSheet="10" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="9" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="352">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1389,7 +1386,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1427,7 +1424,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1465,7 +1462,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2344,7 +2341,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2">
         <v>380000938</v>
@@ -2353,7 +2350,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -2362,10 +2359,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -2455,7 +2452,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -2467,7 +2464,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2514,7 +2511,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3">
         <v>750775273</v>
@@ -2523,7 +2520,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -2532,10 +2529,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I3" t="s">
         <v>50</v>
@@ -2625,7 +2622,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -2637,7 +2634,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2690,7 +2687,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2737,7 +2734,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -2775,7 +2772,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -2792,97 +2789,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +2951,7 @@
   <dimension ref="A1:AX25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3098,7 +3095,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2">
         <v>680008224</v>
@@ -3107,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -3116,10 +3113,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -3185,7 +3182,7 @@
         <v>141</v>
       </c>
       <c r="AD2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI2" t="s">
         <v>38</v>
@@ -3197,7 +3194,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3247,7 +3244,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3294,7 +3291,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3335,7 +3332,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3367,7 +3364,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3378,97 +3375,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3534,7 +3531,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3592,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3628,43 +3625,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3675,7 +3672,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" s="7">
         <v>380004172</v>
@@ -3684,7 +3681,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -3693,16 +3690,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -3717,31 +3714,31 @@
         <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>2.2200000000000002</v>
@@ -3759,7 +3756,7 @@
         <v>139</v>
       </c>
       <c r="AC2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3771,13 +3768,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3792,31 +3789,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3824,7 +3821,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3">
         <v>630003100</v>
@@ -3833,7 +3830,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -3842,7 +3839,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" s="5">
         <v>243565</v>
@@ -3851,7 +3848,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -3866,31 +3863,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X3">
         <v>2.98</v>
@@ -3908,7 +3905,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -3920,13 +3917,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -3941,31 +3938,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -3973,16 +3970,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" t="s">
         <v>312</v>
-      </c>
-      <c r="B4" t="s">
-        <v>313</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -3991,7 +3988,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" s="5">
         <v>243473</v>
@@ -4000,7 +3997,7 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -4015,31 +4012,31 @@
         <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X4">
         <v>1.87</v>
@@ -4057,7 +4054,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -4066,13 +4063,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4087,31 +4084,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4119,16 +4116,16 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" t="s">
         <v>317</v>
-      </c>
-      <c r="B5" t="s">
-        <v>318</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -4137,7 +4134,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H5" s="5">
         <v>243442</v>
@@ -4146,7 +4143,7 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -4161,31 +4158,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>1.45</v>
@@ -4203,16 +4200,16 @@
         <v>139</v>
       </c>
       <c r="AC5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4227,31 +4224,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4259,13 +4256,13 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -4274,13 +4271,13 @@
         <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -4295,31 +4292,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -4337,40 +4334,40 @@
         <v>139</v>
       </c>
       <c r="AC6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4378,7 +4375,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7">
         <v>750761041</v>
@@ -4387,7 +4384,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -4396,16 +4393,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I7" t="s">
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -4420,31 +4417,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>1.24</v>
@@ -4462,18 +4459,18 @@
         <v>138</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B8">
         <v>750438636</v>
@@ -4482,7 +4479,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -4491,16 +4488,16 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I8" t="s">
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -4515,31 +4512,31 @@
         <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>0.15</v>
@@ -4557,15 +4554,15 @@
         <v>137</v>
       </c>
       <c r="AC8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9">
         <v>750995997</v>
@@ -4574,7 +4571,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -4589,7 +4586,7 @@
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -4604,31 +4601,31 @@
         <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T9" t="s">
+        <v>187</v>
+      </c>
+      <c r="U9" t="s">
         <v>188</v>
       </c>
-      <c r="U9" t="s">
-        <v>189</v>
-      </c>
       <c r="V9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -4646,90 +4643,90 @@
         <v>141</v>
       </c>
       <c r="AC9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4810,7 +4807,7 @@
   <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4870,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4906,43 +4903,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4953,16 +4950,16 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -4971,7 +4968,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" s="5">
         <v>243292</v>
@@ -4980,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -4995,31 +4992,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>4.5</v>
@@ -5037,7 +5034,7 @@
         <v>139</v>
       </c>
       <c r="AC2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -5049,13 +5046,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -5070,31 +5067,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -5102,13 +5099,13 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -5123,7 +5120,7 @@
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -5138,31 +5135,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X3">
         <v>4.3</v>
@@ -5180,7 +5177,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -5192,13 +5189,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -5213,31 +5210,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -5245,16 +5242,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -5263,16 +5260,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -5287,31 +5284,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" t="s">
         <v>185</v>
       </c>
-      <c r="T4" t="s">
-        <v>186</v>
-      </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>1.02</v>
@@ -5329,7 +5326,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -5338,13 +5335,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -5359,31 +5356,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" s="8">
         <v>750582778</v>
@@ -5400,7 +5397,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -5409,7 +5406,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H5" s="5">
         <v>243380</v>
@@ -5418,7 +5415,7 @@
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K5" t="s">
         <v>56</v>
@@ -5433,31 +5430,31 @@
         <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T5" t="s">
+        <v>187</v>
+      </c>
+      <c r="U5" t="s">
         <v>188</v>
       </c>
-      <c r="U5" t="s">
-        <v>189</v>
-      </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X5">
         <v>1.89</v>
@@ -5475,16 +5472,16 @@
         <v>139</v>
       </c>
       <c r="AC5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -5499,31 +5496,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -5531,16 +5528,16 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
         <v>240</v>
-      </c>
-      <c r="B6" t="s">
-        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -5549,16 +5546,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -5573,31 +5570,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" t="s">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>2.86</v>
@@ -5615,40 +5612,40 @@
         <v>138</v>
       </c>
       <c r="AC6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -5656,13 +5653,13 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -5671,13 +5668,13 @@
         <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -5692,31 +5689,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V7" t="s">
         <v>72</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>1.65</v>
@@ -5734,27 +5731,27 @@
         <v>140</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -5763,13 +5760,13 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -5784,31 +5781,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
+        <v>197</v>
+      </c>
+      <c r="W8" t="s">
         <v>198</v>
-      </c>
-      <c r="W8" t="s">
-        <v>199</v>
       </c>
       <c r="X8">
         <v>3.72</v>
@@ -5826,15 +5823,15 @@
         <v>139</v>
       </c>
       <c r="AC8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9">
         <v>750036471</v>
@@ -5843,7 +5840,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -5852,7 +5849,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H9" s="5">
         <v>243292</v>
@@ -5861,7 +5858,7 @@
         <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -5876,31 +5873,31 @@
         <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" t="s">
         <v>198</v>
-      </c>
-      <c r="W9" t="s">
-        <v>199</v>
       </c>
       <c r="X9">
         <v>1.02</v>
@@ -5918,22 +5915,22 @@
         <v>141</v>
       </c>
       <c r="AC9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -5942,13 +5939,13 @@
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -5963,31 +5960,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>3.89</v>
@@ -6005,15 +6002,15 @@
         <v>139</v>
       </c>
       <c r="AC10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11">
         <v>750924253</v>
@@ -6022,7 +6019,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
@@ -6031,7 +6028,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H11" s="5">
         <v>243292</v>
@@ -6040,7 +6037,7 @@
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>58</v>
@@ -6055,31 +6052,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V11" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" t="s">
         <v>198</v>
-      </c>
-      <c r="W11" t="s">
-        <v>199</v>
       </c>
       <c r="X11">
         <v>5.79</v>
@@ -6097,15 +6094,15 @@
         <v>137</v>
       </c>
       <c r="AC11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12">
         <v>750935811</v>
@@ -6114,7 +6111,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -6123,13 +6120,13 @@
         <v>46</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -6144,31 +6141,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T12" t="s">
+        <v>187</v>
+      </c>
+      <c r="U12" t="s">
         <v>188</v>
       </c>
-      <c r="U12" t="s">
-        <v>189</v>
-      </c>
       <c r="V12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X12">
         <v>2.98</v>
@@ -6186,15 +6183,15 @@
         <v>139</v>
       </c>
       <c r="AC12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13">
         <v>750444583</v>
@@ -6203,7 +6200,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -6212,16 +6209,16 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -6236,31 +6233,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X13">
         <v>1.36</v>
@@ -6278,21 +6275,21 @@
         <v>138</v>
       </c>
       <c r="AC13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -6301,13 +6298,13 @@
         <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -6322,31 +6319,31 @@
         <v>78</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s">
+        <v>187</v>
+      </c>
+      <c r="U14" t="s">
         <v>188</v>
       </c>
-      <c r="U14" t="s">
-        <v>189</v>
-      </c>
       <c r="V14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X14">
         <v>1.36</v>
@@ -6364,24 +6361,24 @@
         <v>139</v>
       </c>
       <c r="AC14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" t="s">
         <v>291</v>
-      </c>
-      <c r="B15" t="s">
-        <v>292</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -6390,7 +6387,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H15" s="5">
         <v>243534</v>
@@ -6399,7 +6396,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>57</v>
@@ -6414,31 +6411,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
         <v>198</v>
-      </c>
-      <c r="W15" t="s">
-        <v>199</v>
       </c>
       <c r="X15">
         <v>1.39</v>
@@ -6456,24 +6453,24 @@
         <v>137</v>
       </c>
       <c r="AC15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" t="s">
         <v>293</v>
-      </c>
-      <c r="B16" t="s">
-        <v>294</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -6482,7 +6479,7 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H16" s="5">
         <v>243534</v>
@@ -6491,7 +6488,7 @@
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>56</v>
@@ -6506,31 +6503,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X16">
         <v>8.4</v>
@@ -6548,15 +6545,15 @@
         <v>138</v>
       </c>
       <c r="AC16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B17">
         <v>750747938</v>
@@ -6565,7 +6562,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
@@ -6574,16 +6571,16 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -6598,31 +6595,31 @@
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R17" t="s">
+        <v>179</v>
+      </c>
+      <c r="S17" t="s">
         <v>180</v>
       </c>
-      <c r="S17" t="s">
-        <v>181</v>
-      </c>
       <c r="T17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X17">
         <v>0.57999999999999996</v>
@@ -6640,15 +6637,15 @@
         <v>141</v>
       </c>
       <c r="AC17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B18">
         <v>750747941</v>
@@ -6657,7 +6654,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
@@ -6666,16 +6663,16 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I18" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>57</v>
@@ -6690,31 +6687,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X18">
         <v>6.61</v>
@@ -6732,15 +6729,15 @@
         <v>137</v>
       </c>
       <c r="AC18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B19">
         <v>750463296</v>
@@ -6749,7 +6746,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6758,16 +6755,16 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>57</v>
@@ -6782,31 +6779,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V19" t="s">
+        <v>197</v>
+      </c>
+      <c r="W19" t="s">
         <v>198</v>
-      </c>
-      <c r="W19" t="s">
-        <v>199</v>
       </c>
       <c r="X19">
         <v>3.96</v>
@@ -6824,21 +6821,21 @@
         <v>139</v>
       </c>
       <c r="AC19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -6853,7 +6850,7 @@
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
@@ -6868,31 +6865,31 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X20">
         <v>3.36</v>
@@ -6910,15 +6907,15 @@
         <v>140</v>
       </c>
       <c r="AC20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B21">
         <v>750105874</v>
@@ -6927,7 +6924,7 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -6942,7 +6939,7 @@
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
@@ -6957,31 +6954,31 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X21">
         <v>1.97</v>
@@ -6999,15 +6996,15 @@
         <v>141</v>
       </c>
       <c r="AC21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B22">
         <v>750995209</v>
@@ -7016,7 +7013,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -7031,7 +7028,7 @@
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
         <v>57</v>
@@ -7046,31 +7043,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X22">
         <v>2.97</v>
@@ -7088,15 +7085,15 @@
         <v>137</v>
       </c>
       <c r="AC22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B23">
         <v>730014293</v>
@@ -7105,7 +7102,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -7114,16 +7111,16 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s">
         <v>57</v>
@@ -7138,31 +7135,31 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V23" t="s">
+        <v>197</v>
+      </c>
+      <c r="W23" t="s">
         <v>198</v>
-      </c>
-      <c r="W23" t="s">
-        <v>199</v>
       </c>
       <c r="X23">
         <v>4.99</v>
@@ -7180,15 +7177,15 @@
         <v>137</v>
       </c>
       <c r="AC23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B24">
         <v>750788613</v>
@@ -7197,7 +7194,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -7206,16 +7203,16 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I24" t="s">
         <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s">
         <v>56</v>
@@ -7230,31 +7227,31 @@
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X24">
         <v>1.41</v>
@@ -7272,16 +7269,16 @@
         <v>141</v>
       </c>
       <c r="AC24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H25" s="5"/>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -7366,7 +7363,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7425,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7461,43 +7458,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -7508,7 +7505,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2">
         <v>540001262</v>
@@ -7517,7 +7514,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -7526,16 +7523,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -7550,31 +7547,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>12.9</v>
@@ -7592,7 +7589,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -7604,13 +7601,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -7625,31 +7622,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -7657,16 +7654,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -7675,7 +7672,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" s="5">
         <v>243441</v>
@@ -7684,7 +7681,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -7699,31 +7696,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" t="s">
         <v>188</v>
       </c>
-      <c r="U3" t="s">
-        <v>189</v>
-      </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X3">
         <v>1.28</v>
@@ -7741,7 +7738,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -7753,13 +7750,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -7774,31 +7771,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -7806,7 +7803,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4">
         <v>750540605</v>
@@ -7815,7 +7812,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -7824,7 +7821,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="5">
         <v>243565</v>
@@ -7833,7 +7830,7 @@
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -7848,31 +7845,31 @@
         <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X4">
         <v>2.72</v>
@@ -7890,7 +7887,7 @@
         <v>139</v>
       </c>
       <c r="AC4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -7899,13 +7896,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -7920,31 +7917,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -7952,7 +7949,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5">
         <v>750741071</v>
@@ -7961,7 +7958,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -7970,16 +7967,16 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -7994,31 +7991,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>0.79</v>
@@ -8036,16 +8033,16 @@
         <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -8060,31 +8057,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -8092,7 +8089,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6">
         <v>540003710</v>
@@ -8101,7 +8098,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -8110,7 +8107,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H6" s="5">
         <v>243504</v>
@@ -8119,7 +8116,7 @@
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -8134,31 +8131,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>69.989999999999995</v>
@@ -8176,40 +8173,40 @@
         <v>141</v>
       </c>
       <c r="AC6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -8217,16 +8214,16 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -8235,7 +8232,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="5">
         <v>243320</v>
@@ -8244,7 +8241,7 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -8259,31 +8256,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>1.23</v>
@@ -8301,18 +8298,18 @@
         <v>137</v>
       </c>
       <c r="AC7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8">
         <v>510002162</v>
@@ -8321,7 +8318,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -8330,13 +8327,13 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I8" t="s">
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -8351,31 +8348,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -8393,15 +8390,15 @@
         <v>138</v>
       </c>
       <c r="AC8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9">
         <v>750921351</v>
@@ -8410,7 +8407,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -8419,16 +8416,16 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -8443,31 +8440,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>19.489999999999998</v>
@@ -8485,21 +8482,21 @@
         <v>138</v>
       </c>
       <c r="AC9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -8508,13 +8505,13 @@
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -8529,31 +8526,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>7.43</v>
@@ -8571,21 +8568,21 @@
         <v>140</v>
       </c>
       <c r="AC10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -8594,13 +8591,13 @@
         <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -8615,31 +8612,31 @@
         <v>78</v>
       </c>
       <c r="O11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V11" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" t="s">
         <v>198</v>
-      </c>
-      <c r="W11" t="s">
-        <v>199</v>
       </c>
       <c r="X11">
         <v>5</v>
@@ -8657,15 +8654,15 @@
         <v>140</v>
       </c>
       <c r="AC11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B12">
         <v>750867488</v>
@@ -8674,7 +8671,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -8683,16 +8680,16 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -8707,31 +8704,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X12">
         <v>0.52</v>
@@ -8749,81 +8746,81 @@
         <v>141</v>
       </c>
       <c r="AC12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="H13" s="5"/>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H14" s="5"/>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H15" s="5"/>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H16" s="5"/>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9091,7 +9088,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9147,7 +9144,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9200,7 +9197,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9247,7 +9244,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9285,7 +9282,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9302,97 +9299,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9652,7 +9649,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9708,7 +9705,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9761,7 +9758,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9808,7 +9805,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9846,7 +9843,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9863,97 +9860,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10203,7 +10200,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2">
         <v>750394788</v>
@@ -10212,7 +10209,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -10221,7 +10218,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H2" s="5">
         <v>243320</v>
@@ -10314,7 +10311,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10326,7 +10323,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10382,7 +10379,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10435,7 +10432,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10482,7 +10479,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10520,7 +10517,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10537,97 +10534,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10879,7 +10876,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2">
         <v>750271193</v>
@@ -10888,7 +10885,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -10897,7 +10894,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H2" s="5">
         <v>243594</v>
@@ -10990,7 +10987,7 @@
         <v>140</v>
       </c>
       <c r="AL2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -11002,7 +10999,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11049,7 +11046,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>750901135</v>
@@ -11058,7 +11055,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -11067,10 +11064,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -11160,7 +11157,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -11172,7 +11169,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11219,7 +11216,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4">
         <v>750923707</v>
@@ -11228,7 +11225,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -11237,10 +11234,10 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -11330,7 +11327,7 @@
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -11339,7 +11336,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11383,13 +11380,13 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -11488,13 +11485,13 @@
         <v>137</v>
       </c>
       <c r="AL5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11529,13 +11526,13 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -11544,7 +11541,7 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -11634,13 +11631,13 @@
         <v>141</v>
       </c>
       <c r="AL6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AX6" t="s">
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11657,97 +11654,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11997,13 +11994,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -12012,7 +12009,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -12102,7 +12099,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -12114,7 +12111,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -12161,7 +12158,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3">
         <v>310006546</v>
@@ -12170,7 +12167,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -12179,7 +12176,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5">
         <v>243565</v>
@@ -12272,7 +12269,7 @@
         <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -12284,7 +12281,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -12337,7 +12334,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -12384,7 +12381,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -12422,7 +12419,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -12439,97 +12436,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12757,7 +12754,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2">
         <v>730008353</v>
@@ -12766,7 +12763,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -12775,7 +12772,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -12853,7 +12850,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -12865,7 +12862,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -12912,7 +12909,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -12956,7 +12953,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -12994,7 +12991,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -13026,7 +13023,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -13040,97 +13037,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13349,7 +13346,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2">
         <v>750909091</v>
@@ -13358,7 +13355,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -13367,10 +13364,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -13448,7 +13445,7 @@
         <v>138</v>
       </c>
       <c r="AH2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -13460,7 +13457,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -13498,13 +13495,13 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -13513,7 +13510,7 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -13591,7 +13588,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -13603,7 +13600,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -13641,7 +13638,7 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4">
         <v>750959338</v>
@@ -13650,7 +13647,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -13659,7 +13656,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5">
         <v>243351</v>
@@ -13740,7 +13737,7 @@
         <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -13749,7 +13746,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -13784,7 +13781,7 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5">
         <v>680015190</v>
@@ -13793,7 +13790,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -13802,7 +13799,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" s="5">
         <v>243292</v>
@@ -13883,13 +13880,13 @@
         <v>138</v>
       </c>
       <c r="AH5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AO5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -13921,7 +13918,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -13935,97 +13932,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14273,7 +14270,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -14329,7 +14326,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -14382,7 +14379,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -14429,7 +14426,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -14464,7 +14461,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -14478,97 +14475,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
